--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H2">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I2">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J2">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N2">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q2">
-        <v>212.9039365599834</v>
+        <v>127.3157080790008</v>
       </c>
       <c r="R2">
-        <v>1916.13542903985</v>
+        <v>1145.841372711007</v>
       </c>
       <c r="S2">
-        <v>0.09726219204257346</v>
+        <v>0.07474570414241274</v>
       </c>
       <c r="T2">
-        <v>0.09726219204257347</v>
+        <v>0.07474570414241276</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H3">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I3">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J3">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N3">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q3">
-        <v>572.8545035344777</v>
+        <v>259.3465899491569</v>
       </c>
       <c r="R3">
-        <v>5155.690531810299</v>
+        <v>2334.119309542412</v>
       </c>
       <c r="S3">
-        <v>0.2617005849467972</v>
+        <v>0.1522596368914249</v>
       </c>
       <c r="T3">
-        <v>0.2617005849467972</v>
+        <v>0.1522596368914249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H4">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I4">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J4">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N4">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q4">
-        <v>386.0286221599472</v>
+        <v>179.5861104356332</v>
       </c>
       <c r="R4">
-        <v>3474.257599439525</v>
+        <v>1616.274993920699</v>
       </c>
       <c r="S4">
-        <v>0.1763517884596401</v>
+        <v>0.1054331039056014</v>
       </c>
       <c r="T4">
-        <v>0.1763517884596401</v>
+        <v>0.1054331039056014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H5">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I5">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J5">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N5">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O5">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P5">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q5">
-        <v>105.4443746459639</v>
+        <v>43.51549992685933</v>
       </c>
       <c r="R5">
-        <v>948.9993718136749</v>
+        <v>391.6394993417341</v>
       </c>
       <c r="S5">
-        <v>0.04817079093197206</v>
+        <v>0.02554748924715511</v>
       </c>
       <c r="T5">
-        <v>0.04817079093197208</v>
+        <v>0.02554748924715511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.305287</v>
       </c>
       <c r="I6">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J6">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N6">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q6">
-        <v>8.294328877662</v>
+        <v>10.955780926161</v>
       </c>
       <c r="R6">
-        <v>74.64895989895801</v>
+        <v>98.60202833544901</v>
       </c>
       <c r="S6">
-        <v>0.003789148388696601</v>
+        <v>0.00643202297746154</v>
       </c>
       <c r="T6">
-        <v>0.003789148388696602</v>
+        <v>0.00643202297746154</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.305287</v>
       </c>
       <c r="I7">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J7">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N7">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q7">
-        <v>22.31731234347599</v>
+        <v>22.317312343476</v>
       </c>
       <c r="R7">
         <v>200.855811091284</v>
       </c>
       <c r="S7">
-        <v>0.01019535267453219</v>
+        <v>0.0131022577720275</v>
       </c>
       <c r="T7">
-        <v>0.01019535267453219</v>
+        <v>0.01310225777202751</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.305287</v>
       </c>
       <c r="I8">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J8">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N8">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q8">
-        <v>15.038934460863</v>
+        <v>15.453757537077</v>
       </c>
       <c r="R8">
-        <v>135.350410147767</v>
+        <v>139.083817833693</v>
       </c>
       <c r="S8">
-        <v>0.00687032731889402</v>
+        <v>0.009072737419315021</v>
       </c>
       <c r="T8">
-        <v>0.00687032731889402</v>
+        <v>0.009072737419315023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.305287</v>
       </c>
       <c r="I9">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J9">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N9">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O9">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P9">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q9">
-        <v>4.107910524080999</v>
+        <v>3.744599085881999</v>
       </c>
       <c r="R9">
-        <v>36.97119471672899</v>
+        <v>33.701391772938</v>
       </c>
       <c r="S9">
-        <v>0.001876641591238532</v>
+        <v>0.002198414473975267</v>
       </c>
       <c r="T9">
-        <v>0.001876641591238533</v>
+        <v>0.002198414473975267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H10">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I10">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J10">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N10">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q10">
-        <v>143.6848189991287</v>
+        <v>217.372953752859</v>
       </c>
       <c r="R10">
-        <v>1293.163370992158</v>
+        <v>1956.356583775731</v>
       </c>
       <c r="S10">
-        <v>0.0656404042353549</v>
+        <v>0.1276173595145989</v>
       </c>
       <c r="T10">
-        <v>0.06564040423535492</v>
+        <v>0.1276173595145989</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H11">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I11">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J11">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N11">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q11">
-        <v>386.6086131760982</v>
+        <v>442.7963772388439</v>
       </c>
       <c r="R11">
-        <v>3479.477518584884</v>
+        <v>3985.167395149596</v>
       </c>
       <c r="S11">
-        <v>0.1766167492607756</v>
+        <v>0.2599610645678512</v>
       </c>
       <c r="T11">
-        <v>0.1766167492607756</v>
+        <v>0.2599610645678512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H12">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I12">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J12">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N12">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q12">
-        <v>260.5233778188408</v>
+        <v>306.617022105063</v>
       </c>
       <c r="R12">
-        <v>2344.710400369567</v>
+        <v>2759.553198945567</v>
       </c>
       <c r="S12">
-        <v>0.1190164691851858</v>
+        <v>0.1800116070914957</v>
       </c>
       <c r="T12">
-        <v>0.1190164691851858</v>
+        <v>0.1800116070914958</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H13">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I13">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J13">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N13">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O13">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P13">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q13">
-        <v>71.16240371259211</v>
+        <v>74.29635271135798</v>
       </c>
       <c r="R13">
-        <v>640.461633413329</v>
+        <v>668.6671744022219</v>
       </c>
       <c r="S13">
-        <v>0.03250955096433947</v>
+        <v>0.0436186019966806</v>
       </c>
       <c r="T13">
-        <v>0.03250955096433947</v>
+        <v>0.04361860199668061</v>
       </c>
     </row>
   </sheetData>
